--- a/backend/src/main/resources/util/web_template.xlsx
+++ b/backend/src/main/resources/util/web_template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>brand</t>
   </si>
   <si>
-    <t>measurement</t>
+    <t>measurement_name</t>
+  </si>
+  <si>
+    <t>measurement_unit</t>
   </si>
 </sst>
 </file>
@@ -289,6 +292,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="37.38"/>
+    <col customWidth="1" min="6" max="6" width="14.5"/>
+    <col customWidth="1" min="7" max="7" width="17.63"/>
+    <col customWidth="1" min="8" max="8" width="20.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -313,6 +319,9 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
